--- a/biology/Histoire de la zoologie et de la botanique/Émile_Topsent/Émile_Topsent.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Topsent/Émile_Topsent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Topsent</t>
+          <t>Émile_Topsent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Topsent est un biologiste marin français, né le 10 février 1862 au Havre et mort le 22 septembre 1951 à Dijon.
 Ce spécialiste des éponges décrit notamment les espèces des collections du prince Albert Ier de Monaco (1848-1922). Ce travail est à la base de la classification des éponges.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Topsent</t>
+          <t>Émile_Topsent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Abréviation en botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Topsent bénéficie d'une abréviation en botanique, pour des publications en 1892. Il a notamment décrit le genre Pontomyxa, en 1892, dans les Archives de Zoologie expérimentale et générale, tome XXXI. Ce genre fut un temps placé parmi les Fungi, ce qui explique l'abréviation. Il est maintenant plutôt placé parmi les Mycetozoa (classe qui n'est pas considérée comme botanique). 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Topsent</t>
+          <t>Émile_Topsent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution à l'étude des clionides, 1888.
 Résultats des Campagnes Scientifiques Accomplies sur son Yacht par Albert Ier Prince Souvrain de Monaco, 1892.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Topsent</t>
+          <t>Émile_Topsent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bemon
 Jean-Jacques Amigo, « Topsent (Émile) », dans Nouveau Dictionnaire de biographies roussillonnaises, vol. 3 Sciences de la Vie et de la Terre, Perpignan, Publications de l'olivier, 2017, 915 p. (ISBN 9782908866506)</t>
